--- a/bin/sheets/main_db/active_players/all_formats/ActivePlayers_NZL.xlsx
+++ b/bin/sheets/main_db/active_players/all_formats/ActivePlayers_NZL.xlsx
@@ -536,7 +536,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -576,9 +576,11 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -638,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -778,7 +780,7 @@
         <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -841,10 +843,10 @@
         <v>74</v>
       </c>
       <c r="D20" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -861,7 +863,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +899,7 @@
         <v>42</v>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
@@ -915,10 +917,10 @@
         <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +941,7 @@
         <v>71</v>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -957,7 +959,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -1018,10 +1020,10 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1097,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -1113,9 +1115,11 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1132,10 +1136,10 @@
         <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
@@ -1212,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="n">
         <v>17</v>
@@ -1292,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>

--- a/bin/sheets/main_db/active_players/all_formats/ActivePlayers_NZL.xlsx
+++ b/bin/sheets/main_db/active_players/all_formats/ActivePlayers_NZL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_formats_raw" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="all_formats_raw" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/active_players/all_formats/ActivePlayers_NZL.xlsx
+++ b/bin/sheets/main_db/active_players/all_formats/ActivePlayers_NZL.xlsx
@@ -579,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -640,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -783,7 +783,7 @@
         <v>67</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -846,7 +846,7 @@
         <v>125</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -863,7 +863,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -899,7 +899,7 @@
         <v>42</v>
       </c>
       <c r="E23" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -920,7 +920,7 @@
         <v>21</v>
       </c>
       <c r="E24" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
@@ -941,7 +941,7 @@
         <v>71</v>
       </c>
       <c r="E25" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
@@ -1023,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1099,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34">
@@ -1139,7 +1139,7 @@
         <v>41</v>
       </c>
       <c r="E35" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
